--- a/FuseLinks/Linha_2.xlsx
+++ b/FuseLinks/Linha_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O71"/>
+  <dimension ref="A1:M71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,93 +436,85 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>tipoCurto</t>
+          <t>Potência</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Tipo Curto</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Tempo Abertura Fase A Isolador</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Corrente Fase A Isolador</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Tempo Abertura Fase B Isolador</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Corrente Fase B Isolador</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Tempo Abertura Fase C Isolador</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Corrente Fase C Isolador</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Tempo Abertura Fase A Consumidor</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Corrente Fase A Consumidor</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Tempo Abertura Fase B Consumidor</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Corrente Fase B Consumidor</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Local</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>valorFusivel_Isolador</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>valorFusivel_Consumidor</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Potência</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>15KVA</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>Curto ABC</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12.9526</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -546,7 +538,7 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>12.9526</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -558,38 +550,28 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>1H</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>1H</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>15KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>15KVA</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>Curto AC</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -625,38 +607,28 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>1H</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>1H</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>15KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>15KVA</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>Curto BC</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -692,36 +664,28 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>1H</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>1H</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>15KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>15KVA</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>Curto AB</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>1.66566</v>
-      </c>
-      <c r="C5" t="n">
-        <v>14.8909</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D5" t="n">
         <v>1.66566</v>
@@ -735,13 +699,11 @@
       <c r="G5" t="n">
         <v>14.8909</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H5" t="n">
+        <v>1.66566</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>14.8909</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -753,38 +715,28 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>1H</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>1H</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>15KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>15KVA</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>Funcionamento Normal</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -820,36 +772,28 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>1H</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>1H</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>15KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>25KVA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>Curto ABC</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>0.591564</v>
-      </c>
-      <c r="C7" t="n">
-        <v>23.3999</v>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D7" t="n">
         <v>0.591564</v>
@@ -863,13 +807,11 @@
       <c r="G7" t="n">
         <v>23.3999</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H7" t="n">
+        <v>0.591564</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>23.3999</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -881,38 +823,28 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>1H</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>1H</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>25KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>25KVA</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>Curto AC</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -948,38 +880,28 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>1H</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>1H</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>25KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>25KVA</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>Curto BC</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>13.0457</v>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1003,7 +925,7 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>13.0457</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1015,36 +937,28 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>1H</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>1H</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>25KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>25KVA</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>Curto AB</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>0.5965780000000001</v>
-      </c>
-      <c r="C10" t="n">
-        <v>23.3121</v>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D10" t="n">
         <v>0.5965780000000001</v>
@@ -1058,13 +972,11 @@
       <c r="G10" t="n">
         <v>23.3121</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H10" t="n">
+        <v>0.5965780000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>23.3121</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1076,38 +988,28 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>1H</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>1H</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>25KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>25KVA</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>Funcionamento Normal</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1143,36 +1045,28 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>1H</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>1H</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>25KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>30KVA</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>Curto ABC</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>1.21925</v>
-      </c>
-      <c r="C12" t="n">
-        <v>27.1705</v>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D12" t="n">
         <v>1.21925</v>
@@ -1186,13 +1080,11 @@
       <c r="G12" t="n">
         <v>27.1705</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H12" t="n">
+        <v>1.21925</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>27.1705</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1204,38 +1096,28 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>2H</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>1H</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>30KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>30KVA</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>Curto AC</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>12.4058</v>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1259,7 +1141,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>12.4058</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1271,38 +1153,28 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>2H</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>1H</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>30KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>30KVA</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>Curto BC</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>14.9503</v>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1326,7 +1198,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>14.9503</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1338,36 +1210,28 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>2H</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>1H</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>30KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>30KVA</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>Curto AB</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>1.22443</v>
-      </c>
-      <c r="C15" t="n">
-        <v>27.115</v>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D15" t="n">
         <v>1.22443</v>
@@ -1381,13 +1245,11 @@
       <c r="G15" t="n">
         <v>27.115</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H15" t="n">
+        <v>1.22443</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>27.115</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1399,38 +1261,28 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>2H</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>1H</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>30KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>30KVA</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>Funcionamento Normal</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1466,36 +1318,28 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>2H</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>1H</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>30KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>37.5KVA</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
           <t>Curto ABC</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>0.846375</v>
-      </c>
-      <c r="C17" t="n">
-        <v>32.3773</v>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D17" t="n">
         <v>0.846375</v>
@@ -1509,13 +1353,11 @@
       <c r="G17" t="n">
         <v>32.3773</v>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H17" t="n">
+        <v>0.846375</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>32.3773</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1527,38 +1369,28 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>2H</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>2H</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>37.5KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>37.5KVA</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>Curto AC</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>14.0631</v>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1582,7 +1414,7 @@
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>14.0631</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1594,38 +1426,28 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>2H</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>2H</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>37.5KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>37.5KVA</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
           <t>Curto BC</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>18.7412</v>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1649,7 +1471,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>18.7412</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1661,36 +1483,28 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>2H</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>2H</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>37.5KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>37.5KVA</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
           <t>Curto AB</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>0.837552</v>
-      </c>
-      <c r="C20" t="n">
-        <v>32.5399</v>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D20" t="n">
         <v>0.837552</v>
@@ -1704,13 +1518,11 @@
       <c r="G20" t="n">
         <v>32.5399</v>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H20" t="n">
+        <v>0.837552</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>32.5399</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1722,38 +1534,28 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>2H</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>2H</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>37.5KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>37.5KVA</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
           <t>Funcionamento Normal</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1789,36 +1591,28 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>2H</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>2H</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>37.5KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>45KVA</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
           <t>Curto ABC</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>0.635831</v>
-      </c>
-      <c r="C22" t="n">
-        <v>37.0975</v>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D22" t="n">
         <v>0.635831</v>
@@ -1832,13 +1626,11 @@
       <c r="G22" t="n">
         <v>37.0975</v>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H22" t="n">
+        <v>0.635831</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>37.0975</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1850,38 +1642,28 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>2H</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>2H</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>45KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>45KVA</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
           <t>Curto AC</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>15.6511</v>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1905,7 +1687,7 @@
         </is>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>15.6511</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1917,38 +1699,28 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>2H</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>2H</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>45KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>45KVA</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
           <t>Curto BC</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>22.5054</v>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1972,7 +1744,7 @@
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>22.5054</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1984,36 +1756,28 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>2H</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>2H</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>45KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>45KVA</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
           <t>Curto AB</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>0.636348</v>
-      </c>
-      <c r="C25" t="n">
-        <v>37.0832</v>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D25" t="n">
         <v>0.636348</v>
@@ -2027,13 +1791,11 @@
       <c r="G25" t="n">
         <v>37.0832</v>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H25" t="n">
+        <v>0.636348</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>37.0832</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2045,38 +1807,28 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>2H</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>2H</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>45KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>45KVA</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
           <t>Funcionamento Normal</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>0</v>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2112,36 +1864,28 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>2H</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>2H</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>45KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>50KVA</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
           <t>Curto ABC</t>
         </is>
       </c>
-      <c r="B27" t="n">
-        <v>0.542595</v>
-      </c>
-      <c r="C27" t="n">
-        <v>39.9792</v>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D27" t="n">
         <v>0.542595</v>
@@ -2155,13 +1899,11 @@
       <c r="G27" t="n">
         <v>39.9792</v>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H27" t="n">
+        <v>0.542595</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>39.9792</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2173,38 +1915,28 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>2H</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>2H</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>50KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>50KVA</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
           <t>Curto AC</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>17.1253</v>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2228,7 +1960,7 @@
         </is>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>17.1253</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2240,38 +1972,28 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>2H</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>2H</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>50KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>50KVA</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
           <t>Curto BC</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>23.6662</v>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2295,7 +2017,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>23.6662</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2307,36 +2029,28 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>2H</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>2H</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>50KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>50KVA</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
           <t>Curto AB</t>
         </is>
       </c>
-      <c r="B30" t="n">
-        <v>0.542643</v>
-      </c>
-      <c r="C30" t="n">
-        <v>39.9775</v>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D30" t="n">
         <v>0.542643</v>
@@ -2350,13 +2064,11 @@
       <c r="G30" t="n">
         <v>39.9775</v>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H30" t="n">
+        <v>0.542643</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>39.9775</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2368,38 +2080,28 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>2H</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>2H</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>50KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>50KVA</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
           <t>Funcionamento Normal</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>0</v>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2435,38 +2137,28 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>2H</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>2H</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>50KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
+          <t>75KVA</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
           <t>Curto ABC</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>51.9487</v>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2490,7 +2182,7 @@
         </is>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>51.9487</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2502,38 +2194,28 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>3H</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>3H</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>75KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>75KVA</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
           <t>Curto AC</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>22.1207</v>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2557,7 +2239,7 @@
         </is>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>22.1207</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2569,38 +2251,28 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>3H</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>3H</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>75KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>75KVA</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
           <t>Curto BC</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>31.5501</v>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2624,7 +2296,7 @@
         </is>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>31.5501</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2636,38 +2308,28 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>3H</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>3H</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>75KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
+          <t>75KVA</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
           <t>Curto AB</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>51.9364</v>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2691,7 +2353,7 @@
         </is>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>51.9364</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2703,38 +2365,28 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>3H</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>3H</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>75KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
+          <t>75KVA</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
           <t>Funcionamento Normal</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>0</v>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2770,36 +2422,28 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>3H</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>3H</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>75KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
+          <t>100KVA</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
           <t>Curto ABC</t>
         </is>
       </c>
-      <c r="B37" t="n">
-        <v>0.191767</v>
-      </c>
-      <c r="C37" t="n">
-        <v>60.7233</v>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D37" t="n">
         <v>0.191767</v>
@@ -2813,13 +2457,11 @@
       <c r="G37" t="n">
         <v>60.7233</v>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H37" t="n">
+        <v>0.191767</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>60.7233</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -2831,38 +2473,28 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>5H</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>5H</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>100KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
+          <t>100KVA</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
           <t>Curto AC</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>9.5101</v>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2886,7 +2518,7 @@
         </is>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>9.5101</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -2894,42 +2526,32 @@
         </is>
       </c>
       <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
         <v>11.2061</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>5H</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>5H</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>100KVA</t>
-        </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t>100KVA</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
           <t>Curto BC</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>38.8103</v>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2953,7 +2575,7 @@
         </is>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>38.8103</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -2965,36 +2587,28 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>5H</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>5H</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>100KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
+          <t>100KVA</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
           <t>Curto AB</t>
         </is>
       </c>
-      <c r="B40" t="n">
-        <v>0.191792</v>
-      </c>
-      <c r="C40" t="n">
-        <v>60.7198</v>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D40" t="n">
         <v>0.191792</v>
@@ -3008,13 +2622,11 @@
       <c r="G40" t="n">
         <v>60.7198</v>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H40" t="n">
+        <v>0.191792</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>60.7198</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3026,38 +2638,28 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>5H</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>5H</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>100KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>100KVA</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
           <t>Funcionamento Normal</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>0</v>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3093,36 +2695,28 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>5H</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>5H</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>100KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
+          <t>112.5KVA</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
           <t>Curto ABC</t>
         </is>
       </c>
-      <c r="B42" t="n">
-        <v>0.168658</v>
-      </c>
-      <c r="C42" t="n">
-        <v>64.2897</v>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D42" t="n">
         <v>0.168658</v>
@@ -3136,13 +2730,11 @@
       <c r="G42" t="n">
         <v>64.2897</v>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H42" t="n">
+        <v>0.168658</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>64.2897</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3154,38 +2746,28 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>5H</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>5H</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>112.5KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
+          <t>112.5KVA</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
           <t>Curto AC</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>11.1459</v>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3209,7 +2791,7 @@
         </is>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>11.1459</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3217,42 +2799,32 @@
         </is>
       </c>
       <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
         <v>12.8266</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>5H</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>5H</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>112.5KVA</t>
-        </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
+          <t>112.5KVA</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
           <t>Curto BC</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>41.4883</v>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3276,7 +2848,7 @@
         </is>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.4883</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3288,36 +2860,28 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>5H</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>5H</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>112.5KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
+          <t>112.5KVA</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
           <t>Curto AB</t>
         </is>
       </c>
-      <c r="B45" t="n">
-        <v>0.168322</v>
-      </c>
-      <c r="C45" t="n">
-        <v>64.34690000000001</v>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D45" t="n">
         <v>0.168322</v>
@@ -3331,13 +2895,11 @@
       <c r="G45" t="n">
         <v>64.34690000000001</v>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H45" t="n">
+        <v>0.168322</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>64.34690000000001</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3349,38 +2911,28 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>5H</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>5H</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>112.5KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
+          <t>112.5KVA</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
           <t>Funcionamento Normal</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>0</v>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3416,38 +2968,28 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>5H</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>5H</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>112.5KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
+          <t>150KVA</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
           <t>Curto ABC</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>15.3037</v>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3471,50 +3013,40 @@
         </is>
       </c>
       <c r="I47" t="n">
+        <v>15.3037</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>15.3364</v>
       </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="K47" t="n">
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
         <v>15.3137</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>6K</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>6K</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>150KVA</t>
-        </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
+          <t>150KVA</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
           <t>Curto AC</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>13.5783</v>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3538,48 +3070,40 @@
         </is>
       </c>
       <c r="I48" t="n">
+        <v>13.5783</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>15.4424</v>
       </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="K48" t="n">
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
         <v>15.3679</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>6K</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>6K</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>150KVA</t>
-        </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
+          <t>150KVA</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
           <t>Curto BC</t>
         </is>
       </c>
-      <c r="B49" t="n">
-        <v>11.0486</v>
-      </c>
-      <c r="C49" t="n">
-        <v>15.5101</v>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D49" t="n">
         <v>11.0486</v>
@@ -3593,54 +3117,44 @@
       <c r="G49" t="n">
         <v>15.5101</v>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H49" t="n">
+        <v>11.0486</v>
       </c>
       <c r="I49" t="n">
+        <v>15.5101</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>15.4846</v>
       </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="K49" t="n">
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
         <v>15.5255</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>6K</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>6K</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>150KVA</t>
-        </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
+          <t>150KVA</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
           <t>Curto AB</t>
         </is>
       </c>
-      <c r="B50" t="n">
-        <v>11.1413</v>
-      </c>
-      <c r="C50" t="n">
-        <v>15.4949</v>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D50" t="n">
         <v>11.1413</v>
@@ -3654,54 +3168,44 @@
       <c r="G50" t="n">
         <v>15.4949</v>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H50" t="n">
+        <v>11.1413</v>
       </c>
       <c r="I50" t="n">
+        <v>15.4949</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>9.64931</v>
       </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="K50" t="n">
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
         <v>9.635389999999999</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>6K</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>6K</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>150KVA</t>
-        </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
+          <t>150KVA</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
           <t>Funcionamento Normal</t>
         </is>
       </c>
-      <c r="B51" t="n">
-        <v>9.419359999999999</v>
-      </c>
-      <c r="C51" t="n">
-        <v>15.8076</v>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D51" t="n">
         <v>9.419359999999999</v>
@@ -3715,56 +3219,44 @@
       <c r="G51" t="n">
         <v>15.8076</v>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H51" t="n">
+        <v>9.419359999999999</v>
       </c>
       <c r="I51" t="n">
+        <v>15.8076</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>15.7827</v>
       </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="K51" t="n">
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
         <v>15.6383</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>6K</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>6K</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>150KVA</t>
-        </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
+          <t>200KVA</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
           <t>Curto ABC</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>19.5344</v>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3788,50 +3280,40 @@
         </is>
       </c>
       <c r="I52" t="n">
+        <v>19.5344</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>19.5888</v>
       </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="K52" t="n">
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>19.5217</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>200KVA</t>
-        </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
+          <t>200KVA</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
           <t>Curto AC</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>19.6839</v>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3855,50 +3337,40 @@
         </is>
       </c>
       <c r="I53" t="n">
+        <v>19.6839</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>19.7729</v>
       </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="K53" t="n">
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>19.6516</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>200KVA</t>
-        </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
+          <t>200KVA</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
           <t>Curto BC</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>19.7168</v>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3922,50 +3394,40 @@
         </is>
       </c>
       <c r="I54" t="n">
+        <v>19.7168</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>19.6875</v>
       </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="K54" t="n">
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>10.1343</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>200KVA</t>
-        </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
+          <t>200KVA</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
           <t>Curto AB</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>19.7021</v>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3989,50 +3451,40 @@
         </is>
       </c>
       <c r="I55" t="n">
+        <v>19.7021</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>19.6937</v>
       </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="K55" t="n">
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>19.7229</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>200KVA</t>
-        </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
+          <t>200KVA</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
           <t>Funcionamento Normal</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>19.567</v>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4056,50 +3508,40 @@
         </is>
       </c>
       <c r="I56" t="n">
+        <v>19.567</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>19.5013</v>
       </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="K56" t="n">
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>19.623</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>200KVA</t>
-        </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
+          <t>225KVA</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
           <t>Curto ABC</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>21.7145</v>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4123,50 +3565,40 @@
         </is>
       </c>
       <c r="I57" t="n">
+        <v>21.7145</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>21.761</v>
       </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="K57" t="n">
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>21.7157</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>225KVA</t>
-        </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
+          <t>225KVA</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
           <t>Curto AC</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>22.0263</v>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4190,50 +3622,40 @@
         </is>
       </c>
       <c r="I58" t="n">
+        <v>22.0263</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>22.0161</v>
       </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="K58" t="n">
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
         <v>21.8388</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>225KVA</t>
-        </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
+          <t>225KVA</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
           <t>Curto BC</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>21.6575</v>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4257,50 +3679,40 @@
         </is>
       </c>
       <c r="I59" t="n">
+        <v>21.6575</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>21.714</v>
       </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="K59" t="n">
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>21.6846</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>225KVA</t>
-        </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
+          <t>225KVA</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
           <t>Curto AB</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>21.963</v>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4324,50 +3736,40 @@
         </is>
       </c>
       <c r="I60" t="n">
+        <v>21.963</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>21.9572</v>
       </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="K60" t="n">
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>21.8788</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>225KVA</t>
-        </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
+          <t>225KVA</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
           <t>Funcionamento Normal</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
-        <v>21.6448</v>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4391,50 +3793,40 @@
         </is>
       </c>
       <c r="I61" t="n">
+        <v>21.6448</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>21.772</v>
       </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="K61" t="n">
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>21.6169</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>225KVA</t>
-        </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
+          <t>250KVA</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
           <t>Curto ABC</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v>23.7957</v>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4458,50 +3850,40 @@
         </is>
       </c>
       <c r="I62" t="n">
+        <v>23.7957</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>23.8265</v>
       </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="K62" t="n">
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>23.7205</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>12K</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>12K</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>250KVA</t>
-        </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
+          <t>250KVA</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
           <t>Curto AC</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>23.8418</v>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4525,50 +3907,40 @@
         </is>
       </c>
       <c r="I63" t="n">
+        <v>23.8418</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>12.2614</v>
       </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="K63" t="n">
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>23.8782</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>12K</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>12K</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>250KVA</t>
-        </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
+          <t>250KVA</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
           <t>Curto BC</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
-        <v>23.9828</v>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4592,50 +3964,40 @@
         </is>
       </c>
       <c r="I64" t="n">
+        <v>23.9828</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>23.8377</v>
       </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="K64" t="n">
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
         <v>23.9389</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>12K</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>12K</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>250KVA</t>
-        </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
+          <t>250KVA</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
           <t>Curto AB</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
-        <v>23.7156</v>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4659,50 +4021,40 @@
         </is>
       </c>
       <c r="I65" t="n">
+        <v>23.7156</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>23.6882</v>
       </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="K65" t="n">
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
         <v>23.7166</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>12K</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>12K</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>250KVA</t>
-        </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
+          <t>250KVA</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
           <t>Funcionamento Normal</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
-        <v>23.8113</v>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4726,50 +4078,40 @@
         </is>
       </c>
       <c r="I66" t="n">
+        <v>23.8113</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>23.6162</v>
       </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="K66" t="n">
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
         <v>23.9171</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>12K</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>12K</t>
-        </is>
-      </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>250KVA</t>
-        </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
+          <t>300KVA</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
           <t>Curto ABC</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>27.0797</v>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4793,50 +4135,40 @@
         </is>
       </c>
       <c r="I67" t="n">
+        <v>27.0797</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>27.1106</v>
       </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="K67" t="n">
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
         <v>27.1661</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>15K</t>
-        </is>
-      </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>15K</t>
-        </is>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>300KVA</t>
-        </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
+          <t>300KVA</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
           <t>Curto AC</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>27.0279</v>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4860,50 +4192,40 @@
         </is>
       </c>
       <c r="I68" t="n">
+        <v>27.0279</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>27.0745</v>
       </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="K68" t="n">
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>27.016</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>15K</t>
-        </is>
-      </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>15K</t>
-        </is>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>300KVA</t>
-        </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
+          <t>300KVA</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
           <t>Curto BC</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
-        <v>27.268</v>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4927,50 +4249,40 @@
         </is>
       </c>
       <c r="I69" t="n">
+        <v>27.268</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>27.355</v>
       </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="K69" t="n">
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
         <v>27.2584</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>15K</t>
-        </is>
-      </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>15K</t>
-        </is>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>300KVA</t>
-        </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
+          <t>300KVA</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
           <t>Curto AB</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
-        <v>27.1716</v>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4994,50 +4306,40 @@
         </is>
       </c>
       <c r="I70" t="n">
+        <v>27.1716</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>27.3656</v>
       </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="K70" t="n">
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
         <v>27.0697</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>15K</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>15K</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>300KVA</t>
-        </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
+          <t>300KVA</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
           <t>Funcionamento Normal</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
-        <v>27.1229</v>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5061,35 +4363,23 @@
         </is>
       </c>
       <c r="I71" t="n">
+        <v>27.1229</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>27.2354</v>
       </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="K71" t="n">
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
         <v>27.134</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>15K</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>15K</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>300KVA</t>
-        </is>
       </c>
     </row>
   </sheetData>
